--- a/FIT Labs/Lab #4/Homework_2_Solution_CT-084.xlsx
+++ b/FIT Labs/Lab #4/Homework_2_Solution_CT-084.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Programing\NED-Submissions\FIT Labs\Lab #4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C7D707D-DB5A-45F0-9732-815D5B2EB79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B97A795-D64C-47DD-9C92-83A44FE4E1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{45E2F3C6-AD67-42B7-86A9-C8FF2E85C0B5}"/>
   </bookViews>
@@ -135,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -233,12 +233,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -249,7 +333,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,7 +672,7 @@
   <dimension ref="D2:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,108 +691,109 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
     </row>
+    <row r="5" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="12">
         <v>1</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="12">
         <v>2</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="12">
         <v>3</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="12">
         <v>4</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="12">
         <v>5</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="12">
         <v>6</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="12">
         <v>7</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="12">
         <v>8</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="12">
         <v>9</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="12">
         <v>10</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
+    <row r="7" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D8" s="2">
+      <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P8" s="1">
+      <c r="F8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="9">
         <f>COUNTIF(F8:O8,"P")</f>
         <v>7</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="10">
         <f>P8/10</f>
         <v>0.7</v>
       </c>
@@ -1111,11 +1214,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
     <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="I2:L3"/>
     <mergeCell ref="D6:D7"/>
@@ -1126,6 +1224,11 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
